--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strok\OneDrive\Рабочий стол\Python\WorkOrdersHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45315B8E-84E2-41FA-BBF3-2BC6541DC901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920E759E-8133-47BC-90C1-5DEA82AF4DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="3696" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPORT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="487">
   <si>
     <t>{name}</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>Гейша</t>
   </si>
   <si>
-    <t>Угорь</t>
-  </si>
-  <si>
     <t>Каппа маки</t>
   </si>
   <si>
@@ -1413,9 +1410,6 @@
     <t>Пиццы 40</t>
   </si>
   <si>
-    <t>Шаурма</t>
-  </si>
-  <si>
     <t>Соусы</t>
   </si>
   <si>
@@ -1425,64 +1419,178 @@
     <t>БП 40</t>
   </si>
   <si>
-    <t>Шаурма с курицей (Классическая)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с курицей (Классическая)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с курицей (Шашлычная)</t>
-  </si>
-  <si>
-    <t>Шаурма с курицей (Шашлычная)</t>
-  </si>
-  <si>
-    <t>Шаурма с курицей (Сырная)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с курицей (Сырная)</t>
-  </si>
-  <si>
-    <t>Шаурма с курицей (Всё включено)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с курицей (Всё включено)</t>
-  </si>
-  <si>
-    <t>Шаурма с курицей (Пикантная)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с курицей (Пикантная)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с ветчиной (Пикантная)</t>
-  </si>
-  <si>
-    <t>Шаурма с ветчиной (Классическая)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с ветчиной (Классическая)</t>
-  </si>
-  <si>
-    <t>Шаурма с ветчиной (Шашлычная)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с ветчиной (Шашлычная)</t>
-  </si>
-  <si>
-    <t>Шаурма с ветчиной (Сырная)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с ветчиной (Сырная)</t>
-  </si>
-  <si>
-    <t>Шаурма с ветчиной (Всё включено)</t>
-  </si>
-  <si>
-    <t>(М) Шаурма с ветчиной (Всё включено)</t>
-  </si>
-  <si>
-    <t>Шаурма с ветчиной (Пикантная)</t>
+    <t>Унаги маки</t>
+  </si>
+  <si>
+    <t>Имбирь белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запеченые роллы (Краб) </t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Креветка)</t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Лосось)</t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Курица)</t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Овощи)</t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Кальмар)</t>
+  </si>
+  <si>
+    <t>Запеченые роллы (Угорь)</t>
+  </si>
+  <si>
+    <t>Яки</t>
+  </si>
+  <si>
+    <t>Филадельфия</t>
+  </si>
+  <si>
+    <t>Калифорния</t>
+  </si>
+  <si>
+    <t>Лава</t>
+  </si>
+  <si>
+    <t>Спайси</t>
+  </si>
+  <si>
+    <t>Маки</t>
+  </si>
+  <si>
+    <t>Чиз</t>
+  </si>
+  <si>
+    <t>Бонито</t>
+  </si>
+  <si>
+    <t>Кранч</t>
+  </si>
+  <si>
+    <t>Этна</t>
+  </si>
+  <si>
+    <t>Темпура</t>
+  </si>
+  <si>
+    <t>Темпура спайси</t>
+  </si>
+  <si>
+    <t>Темпура лава</t>
+  </si>
+  <si>
+    <t>Фурай</t>
+  </si>
+  <si>
+    <t>Мексикацы</t>
+  </si>
+  <si>
+    <t>Калифония</t>
+  </si>
+  <si>
+    <t>Шаурма стандарт</t>
+  </si>
+  <si>
+    <t>(М) Шаурма</t>
+  </si>
+  <si>
+    <t>Шаурма ветчина</t>
+  </si>
+  <si>
+    <t>(М) Шаурма ветчина</t>
+  </si>
+  <si>
+    <t>Маки (Креветка)</t>
+  </si>
+  <si>
+    <t>Маки (Лосось)</t>
+  </si>
+  <si>
+    <t>Маки (Краб)</t>
+  </si>
+  <si>
+    <t>Маки (Кальмар)</t>
+  </si>
+  <si>
+    <t>Маки (Угорь)</t>
+  </si>
+  <si>
+    <t>Маки (Каппа)</t>
+  </si>
+  <si>
+    <t>Маки (Томато)</t>
+  </si>
+  <si>
+    <t>Маки (Гейша)</t>
+  </si>
+  <si>
+    <t>Курица мини (Классическая)</t>
+  </si>
+  <si>
+    <t>Курица (Шашлычная)</t>
+  </si>
+  <si>
+    <t>Курица мини (Шашлычная)</t>
+  </si>
+  <si>
+    <t>Курица (Сырная)</t>
+  </si>
+  <si>
+    <t>Курица (Классическая)</t>
+  </si>
+  <si>
+    <t>Курица мини (Сырная)</t>
+  </si>
+  <si>
+    <t>Курица (Всё включено)</t>
+  </si>
+  <si>
+    <t>Курица мини (Всё включено)</t>
+  </si>
+  <si>
+    <t>Курица (Пикантная)</t>
+  </si>
+  <si>
+    <t>Курица мини (Пикантная)</t>
+  </si>
+  <si>
+    <t>Ветчина (Классическая)</t>
+  </si>
+  <si>
+    <t>Ветчина мини(Классическая)</t>
+  </si>
+  <si>
+    <t>Ветчина (Шашлычная)</t>
+  </si>
+  <si>
+    <t>Ветчина мини (Шашлычная)</t>
+  </si>
+  <si>
+    <t>Ветчина (Сырная)</t>
+  </si>
+  <si>
+    <t>Ветчина мини (Сырная)</t>
+  </si>
+  <si>
+    <t>Ветчина (Всё включено)</t>
+  </si>
+  <si>
+    <t>Ветчина мини (Всё включено)</t>
+  </si>
+  <si>
+    <t>Ветчина (Пикантная)</t>
+  </si>
+  <si>
+    <t>Ветчина мини (Пикантная)</t>
+  </si>
+  <si>
+    <t>Калифорния краб</t>
   </si>
 </sst>
 </file>
@@ -2291,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2443,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,7 +2454,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E5" s="28"/>
     </row>
@@ -2369,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,1948 +2488,2141 @@
         <v>410</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="B8" s="2">
         <v>370</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>370</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>390</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>390</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>350</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" s="2">
         <v>360</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" s="2">
         <v>360</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="2">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="2">
         <v>350</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22" s="2">
         <v>360</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="2">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>458</v>
       </c>
       <c r="B27" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="B28" s="2">
         <v>300</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="B29" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="B30" s="2">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>318</v>
+        <v>462</v>
       </c>
       <c r="B31" s="2">
         <v>300</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="B32" s="2">
         <v>240</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>320</v>
+        <v>464</v>
       </c>
       <c r="B33" s="2">
         <v>240</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>321</v>
+        <v>465</v>
       </c>
       <c r="B34" s="2">
         <v>330</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B35" s="2">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="B39" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="B40" s="2">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2">
         <v>360</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2">
         <v>370</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2">
         <v>370</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B52" s="2">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="B54" s="2">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="B55" s="2">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="B56" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>334</v>
+        <v>21</v>
       </c>
       <c r="B57" s="2">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B62" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B63" s="2">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2">
         <v>330</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B65" s="2">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B66" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B67" s="2">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B70" s="2">
         <v>370</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B71" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B72" s="2">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B73" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B74" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B75" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B76" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B77" s="2">
         <v>370</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B78" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B79" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B80" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B81" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B82" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="2">
         <v>360</v>
       </c>
-      <c r="B83" s="2">
-        <v>330</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B84" s="2">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B85" s="2">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B86" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B87" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="B88" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>25</v>
+        <v>431</v>
       </c>
       <c r="B89" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="B90" s="2">
-        <v>800</v>
+        <v>370</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="B91" s="2">
-        <v>800</v>
+        <v>370</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="B92" s="2">
-        <v>1320</v>
+        <v>360</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="B93" s="2">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="B94" s="2">
-        <v>960</v>
+        <v>360</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B95" s="2">
         <v>370</v>
       </c>
-      <c r="B95" s="2">
-        <v>1500</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B96" s="2">
-        <v>1710</v>
+        <v>320</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B97" s="2">
-        <v>1940</v>
+        <v>330</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B98" s="2">
-        <v>3000</v>
+        <v>330</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B99" s="2">
-        <v>1360</v>
+        <v>330</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="B100" s="2">
-        <v>2550</v>
+        <v>310</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B101" s="2">
-        <v>610</v>
+        <v>320</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B102" s="2">
-        <v>1040</v>
+        <v>330</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B103" s="2">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="B105" s="2">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B106" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B107" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B108" s="2">
-        <v>200</v>
+        <v>1320</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>27</v>
+        <v>367</v>
       </c>
       <c r="B109" s="2">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B110" s="2">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B111" s="2">
-        <v>510</v>
+        <v>1500</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B112" s="2">
-        <v>480</v>
+        <v>1740</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B113" s="2">
-        <v>600</v>
+        <v>1940</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B114" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="B115" s="2">
-        <v>560</v>
+        <v>1360</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>388</v>
+        <v>26</v>
       </c>
       <c r="B116" s="2">
-        <v>540</v>
+        <v>2550</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B117" s="2">
-        <v>560</v>
+        <v>610</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B118" s="2">
-        <v>690</v>
+        <v>1040</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="B119" s="2">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="B120" s="2">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B121" s="2">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B122" s="2">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B123" s="2">
-        <v>540</v>
+        <v>200</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B124" s="2">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B125" s="2">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B126" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="B127" s="2">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="B128" s="2">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B129" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B130" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="B131" s="2">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="B132" s="2">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="B133" s="2">
-        <v>800</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B134" s="2">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="B135" s="2">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="B136" s="2">
-        <v>680</v>
+        <v>490</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B137" s="2">
-        <v>800</v>
+        <v>530</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B138" s="2">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B139" s="2">
-        <v>760</v>
+        <v>540</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B140" s="2">
-        <v>740</v>
+        <v>430</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>404</v>
+        <v>30</v>
       </c>
       <c r="B141" s="2">
-        <v>760</v>
+        <v>450</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B142" s="2">
-        <v>890</v>
+        <v>510</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B143" s="2">
-        <v>840</v>
+        <v>590</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B144" s="2">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B145" s="2">
-        <v>730</v>
+        <v>480</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B146" s="2">
-        <v>760</v>
+        <v>480</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>408</v>
+        <v>33</v>
       </c>
       <c r="B147" s="2">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>409</v>
+        <v>34</v>
       </c>
       <c r="B148" s="2">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B149" s="2">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B150" s="2">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
       <c r="B151" s="2">
-        <v>790</v>
+        <v>710</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="B152" s="2">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B153" s="2">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B154" s="2">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="B155" s="2">
-        <v>910</v>
+        <v>760</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="B156" s="2">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B157" s="2">
-        <v>290</v>
+        <v>760</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B158" s="2">
-        <v>220</v>
+        <v>890</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>434</v>
+        <v>36</v>
       </c>
       <c r="B159" s="2">
-        <v>290</v>
+        <v>840</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="B160" s="2">
-        <v>220</v>
+        <v>690</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B161" s="2">
-        <v>290</v>
+        <v>730</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="B162" s="2">
-        <v>220</v>
+        <v>760</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="B163" s="2">
-        <v>290</v>
+        <v>740</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B164" s="2">
-        <v>220</v>
+        <v>630</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="B165" s="2">
-        <v>290</v>
+        <v>650</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="B166" s="2">
-        <v>220</v>
+        <v>710</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>442</v>
+        <v>39</v>
       </c>
       <c r="B167" s="2">
-        <v>250</v>
+        <v>790</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>443</v>
+        <v>40</v>
       </c>
       <c r="B168" s="2">
-        <v>190</v>
+        <v>780</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B169" s="2">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="B170" s="2">
-        <v>190</v>
+        <v>680</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>446</v>
+        <v>41</v>
       </c>
       <c r="B171" s="2">
-        <v>250</v>
+        <v>910</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="B172" s="2">
-        <v>190</v>
+        <v>800</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B173" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B174" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B175" s="2">
+        <v>290</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B176" s="2">
+        <v>220</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B177" s="2">
+        <v>290</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B178" s="2">
+        <v>220</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B179" s="2">
+        <v>290</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B180" s="2">
+        <v>220</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B181" s="2">
+        <v>290</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B182" s="2">
+        <v>220</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B183" s="2">
         <v>250</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B176" s="2">
+      <c r="C183" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B184" s="2">
         <v>190</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B185" s="2">
+        <v>250</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B186" s="2">
+        <v>190</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B187" s="2">
+        <v>250</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B188" s="2">
+        <v>190</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B189" s="2">
+        <v>250</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B190" s="2">
+        <v>190</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B191" s="2">
+        <v>250</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B192" s="2">
+        <v>190</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B193" s="2">
+        <v>150</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+      <c r="B194" s="2">
+        <v>30</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B195" s="2">
         <v>30</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="C195" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B196" s="2">
         <v>30</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+      <c r="C196" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B197" s="2">
         <v>30</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B198" s="2">
         <v>30</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+      <c r="C198" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B199" s="2">
         <v>30</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+      <c r="C199" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B200" s="2">
         <v>30</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+      <c r="C200" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B201" s="2">
+        <v>15</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B184" s="2">
-        <v>30</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
